--- a/Working Directory/django/app/test.xlsx
+++ b/Working Directory/django/app/test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,103 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+  <si>
+    <t>remail</t>
+  </si>
+  <si>
+    <t>ccbcc</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>cname</t>
+  </si>
+  <si>
+    <t>cno</t>
+  </si>
+  <si>
+    <t>98dikshitajain@gmail.com</t>
+  </si>
+  <si>
+    <t>sarika43246@gmail.com</t>
+  </si>
+  <si>
+    <t>preranajain03082000@gmail.com;2003ronakjain@gmail.com</t>
+  </si>
+  <si>
+    <t>anmoltextile111@gmail.com;kotadiyakoshalya@gmail.com</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>iiit allahabad</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>iit delhi</t>
+  </si>
+  <si>
+    <t>2003ronakjain@gmail.com</t>
+  </si>
+  <si>
+    <t>preranajain03082000@gmail.com</t>
+  </si>
+  <si>
+    <t>anmoltextile111@gmail.com</t>
+  </si>
+  <si>
+    <t>2003ronakjain@gmail.com;98dikshitajain@gmail.com</t>
+  </si>
+  <si>
+    <t>sarika43246@gmail.com;preranajain03082000@gmail.com</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>ijk</t>
+  </si>
+  <si>
+    <t>ghi</t>
+  </si>
+  <si>
+    <t>bits pliani</t>
+  </si>
+  <si>
+    <t>mbm ec</t>
+  </si>
+  <si>
+    <t>nirma</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -43,17 +134,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -132,6 +231,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -166,6 +266,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,36 +442,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="50.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>1212343456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>9988776655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>1122334455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>1199228833</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A4" r:id="rId6"/>
+    <hyperlink ref="A6" r:id="rId7"/>
+    <hyperlink ref="B4" r:id="rId8"/>
+    <hyperlink ref="B5" r:id="rId9"/>
+    <hyperlink ref="B6" r:id="rId10"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
